--- a/Assets/DataFiles/SongListData.xlsx
+++ b/Assets/DataFiles/SongListData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmzm5\OneDrive\Documents\졸작\R55555LLING\Assets\DataFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmzm5\OneDrive\Documents\졸작\R55555LLING\Assets\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E14236-41ED-4FAE-A5E1-AD09CDE24AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0656EBF-9D25-4A87-BCA6-D3AEDD60681E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1845" windowWidth="17145" windowHeight="12405" xr2:uid="{C84FD16A-F3A1-4B91-A693-3F78EE3977FF}"/>
+    <workbookView xWindow="31635" yWindow="1905" windowWidth="17145" windowHeight="12405" xr2:uid="{C84FD16A-F3A1-4B91-A693-3F78EE3977FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Id : Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>BPM : Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldVenquisher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +669,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -722,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
